--- a/Code/Results/Cases/Case_5_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01376710590998</v>
+        <v>1.038927444142529</v>
       </c>
       <c r="D2">
-        <v>1.033218463394001</v>
+        <v>1.047616587205179</v>
       </c>
       <c r="E2">
-        <v>1.018299611576478</v>
+        <v>1.037524789852911</v>
       </c>
       <c r="F2">
-        <v>1.037414383201526</v>
+        <v>1.056188527193665</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049591873518619</v>
+        <v>1.042043491777227</v>
       </c>
       <c r="J2">
-        <v>1.035543700218206</v>
+        <v>1.044022227579138</v>
       </c>
       <c r="K2">
-        <v>1.04423362611322</v>
+        <v>1.050378726037938</v>
       </c>
       <c r="L2">
-        <v>1.029509757336176</v>
+        <v>1.040315426889858</v>
       </c>
       <c r="M2">
-        <v>1.048375969123195</v>
+        <v>1.058926923289173</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017791847722958</v>
+        <v>1.039787584377955</v>
       </c>
       <c r="D3">
-        <v>1.036302865475729</v>
+        <v>1.048301733414593</v>
       </c>
       <c r="E3">
-        <v>1.021493009806246</v>
+        <v>1.03825420163419</v>
       </c>
       <c r="F3">
-        <v>1.040999685419147</v>
+        <v>1.057004621183756</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050792175109316</v>
+        <v>1.042256228456884</v>
       </c>
       <c r="J3">
-        <v>1.037808966203077</v>
+        <v>1.04452781047057</v>
       </c>
       <c r="K3">
-        <v>1.046491395710307</v>
+        <v>1.05087608095883</v>
       </c>
       <c r="L3">
-        <v>1.031858075522398</v>
+        <v>1.040854877054477</v>
       </c>
       <c r="M3">
-        <v>1.05113352573205</v>
+        <v>1.059556600591692</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020348679999198</v>
+        <v>1.040344838241483</v>
       </c>
       <c r="D4">
-        <v>1.03826537032175</v>
+        <v>1.048745672616951</v>
       </c>
       <c r="E4">
-        <v>1.023527374479641</v>
+        <v>1.038727138843579</v>
       </c>
       <c r="F4">
-        <v>1.043282270098423</v>
+        <v>1.057533635725298</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051546981188842</v>
+        <v>1.042393072671594</v>
       </c>
       <c r="J4">
-        <v>1.039245808575785</v>
+        <v>1.044854980474361</v>
       </c>
       <c r="K4">
-        <v>1.047922900709649</v>
+        <v>1.051197826453084</v>
       </c>
       <c r="L4">
-        <v>1.033349901104243</v>
+        <v>1.041204226393943</v>
       </c>
       <c r="M4">
-        <v>1.052884940217976</v>
+        <v>1.059964336641698</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021412569553922</v>
+        <v>1.040579270305735</v>
       </c>
       <c r="D5">
-        <v>1.039082653101138</v>
+        <v>1.048932447431525</v>
       </c>
       <c r="E5">
-        <v>1.024375191080573</v>
+        <v>1.03892618944282</v>
       </c>
       <c r="F5">
-        <v>1.044233190314519</v>
+        <v>1.057756258273463</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051859170368451</v>
+        <v>1.042450407178453</v>
       </c>
       <c r="J5">
-        <v>1.039843110001359</v>
+        <v>1.044992527229103</v>
       </c>
       <c r="K5">
-        <v>1.048517837342539</v>
+        <v>1.05133306863562</v>
       </c>
       <c r="L5">
-        <v>1.033970612388136</v>
+        <v>1.041351160674433</v>
       </c>
       <c r="M5">
-        <v>1.053613565595754</v>
+        <v>1.06013581737374</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021590566142806</v>
+        <v>1.040618641965935</v>
       </c>
       <c r="D6">
-        <v>1.039219429996217</v>
+        <v>1.048963816065455</v>
       </c>
       <c r="E6">
-        <v>1.024517113879961</v>
+        <v>1.038959624220237</v>
       </c>
       <c r="F6">
-        <v>1.04439235252581</v>
+        <v>1.057793650707586</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051911290350887</v>
+        <v>1.042460022449987</v>
       </c>
       <c r="J6">
-        <v>1.039943008985149</v>
+        <v>1.045015622160384</v>
       </c>
       <c r="K6">
-        <v>1.048617332049271</v>
+        <v>1.051355775203685</v>
       </c>
       <c r="L6">
-        <v>1.034074459211943</v>
+        <v>1.041375835523683</v>
       </c>
       <c r="M6">
-        <v>1.053735461195291</v>
+        <v>1.060164613713851</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020362938516114</v>
+        <v>1.040347970097522</v>
       </c>
       <c r="D7">
-        <v>1.038276321077317</v>
+        <v>1.048748167752391</v>
       </c>
       <c r="E7">
-        <v>1.023538731950183</v>
+        <v>1.038729797674598</v>
       </c>
       <c r="F7">
-        <v>1.043295010100556</v>
+        <v>1.057536609537641</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05155117270305</v>
+        <v>1.042393839544426</v>
       </c>
       <c r="J7">
-        <v>1.039253816024306</v>
+        <v>1.044856818364805</v>
       </c>
       <c r="K7">
-        <v>1.047930877040638</v>
+        <v>1.051199633644524</v>
       </c>
       <c r="L7">
-        <v>1.033358220200935</v>
+        <v>1.041206189472233</v>
       </c>
       <c r="M7">
-        <v>1.052894706009336</v>
+        <v>1.059966627708473</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015137329091236</v>
+        <v>1.039217989639332</v>
       </c>
       <c r="D8">
-        <v>1.034267883916666</v>
+        <v>1.047848009488851</v>
       </c>
       <c r="E8">
-        <v>1.019385595140204</v>
+        <v>1.037771098331759</v>
       </c>
       <c r="F8">
-        <v>1.038633946853999</v>
+        <v>1.056464132710306</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050002113491453</v>
+        <v>1.042115554542539</v>
       </c>
       <c r="J8">
-        <v>1.036315359909931</v>
+        <v>1.044193085933899</v>
       </c>
       <c r="K8">
-        <v>1.045002850391363</v>
+        <v>1.050546824478413</v>
       </c>
       <c r="L8">
-        <v>1.03030922590482</v>
+        <v>1.040497675932355</v>
       </c>
       <c r="M8">
-        <v>1.049314841097401</v>
+        <v>1.059139664117747</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005548993698885</v>
+        <v>1.037232141463659</v>
       </c>
       <c r="D9">
-        <v>1.026939042894</v>
+        <v>1.046266518410763</v>
       </c>
       <c r="E9">
-        <v>1.011811743046678</v>
+        <v>1.036089171781897</v>
       </c>
       <c r="F9">
-        <v>1.030122206837324</v>
+        <v>1.054581630431147</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047100060291608</v>
+        <v>1.041619004688499</v>
       </c>
       <c r="J9">
-        <v>1.030907312975696</v>
+        <v>1.043023745370419</v>
       </c>
       <c r="K9">
-        <v>1.039609666178587</v>
+        <v>1.049395965223945</v>
       </c>
       <c r="L9">
-        <v>1.024716046287973</v>
+        <v>1.039251458697217</v>
       </c>
       <c r="M9">
-        <v>1.042744770827983</v>
+        <v>1.057684760637539</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9988764623307996</v>
+        <v>1.035911915938127</v>
       </c>
       <c r="D10">
-        <v>1.021859462701963</v>
+        <v>1.045215458859367</v>
       </c>
       <c r="E10">
-        <v>1.006575187246579</v>
+        <v>1.034972986069888</v>
       </c>
       <c r="F10">
-        <v>1.02422901556717</v>
+        <v>1.053331677643743</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045042184363104</v>
+        <v>1.041283862718402</v>
       </c>
       <c r="J10">
-        <v>1.027134728229088</v>
+        <v>1.042244423016686</v>
       </c>
       <c r="K10">
-        <v>1.035844944232732</v>
+        <v>1.048628451605641</v>
       </c>
       <c r="L10">
-        <v>1.020826730880369</v>
+        <v>1.038422258061563</v>
       </c>
       <c r="M10">
-        <v>1.038174166711789</v>
+        <v>1.056716473988286</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.995914790980177</v>
+        <v>1.035341134963285</v>
       </c>
       <c r="D11">
-        <v>1.019610393276344</v>
+        <v>1.044761135949633</v>
       </c>
       <c r="E11">
-        <v>1.004259576786942</v>
+        <v>1.034490897304001</v>
       </c>
       <c r="F11">
-        <v>1.021621022720925</v>
+        <v>1.052791655963897</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04412015399042</v>
+        <v>1.041137777226266</v>
       </c>
       <c r="J11">
-        <v>1.02545851253112</v>
+        <v>1.041907040342505</v>
       </c>
       <c r="K11">
-        <v>1.034171725695957</v>
+        <v>1.048296061516011</v>
       </c>
       <c r="L11">
-        <v>1.019101608329143</v>
+        <v>1.038063604384843</v>
       </c>
       <c r="M11">
-        <v>1.03614640068067</v>
+        <v>1.056297606258741</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9948032763041884</v>
+        <v>1.035129256117221</v>
       </c>
       <c r="D12">
-        <v>1.018767212457468</v>
+        <v>1.044592501117122</v>
       </c>
       <c r="E12">
-        <v>1.00339188756002</v>
+        <v>1.034312014254794</v>
       </c>
       <c r="F12">
-        <v>1.020643464181958</v>
+        <v>1.052591252536391</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043772862359627</v>
+        <v>1.04108337004742</v>
       </c>
       <c r="J12">
-        <v>1.024829210898754</v>
+        <v>1.041781733058563</v>
       </c>
       <c r="K12">
-        <v>1.033543483318337</v>
+        <v>1.048172590630501</v>
       </c>
       <c r="L12">
-        <v>1.018454391595734</v>
+        <v>1.037930445279823</v>
       </c>
       <c r="M12">
-        <v>1.03538557405509</v>
+        <v>1.056142082857525</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9950422256593053</v>
+        <v>1.035174698731243</v>
       </c>
       <c r="D13">
-        <v>1.018948434969365</v>
+        <v>1.044628668359924</v>
       </c>
       <c r="E13">
-        <v>1.003578357917671</v>
+        <v>1.034350376821383</v>
       </c>
       <c r="F13">
-        <v>1.020853560068957</v>
+        <v>1.052634231363757</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043847577821769</v>
+        <v>1.041095047100193</v>
       </c>
       <c r="J13">
-        <v>1.024964505070024</v>
+        <v>1.041808611347836</v>
       </c>
       <c r="K13">
-        <v>1.033678552598763</v>
+        <v>1.048199075822803</v>
       </c>
       <c r="L13">
-        <v>1.018593517170391</v>
+        <v>1.037959005584361</v>
       </c>
       <c r="M13">
-        <v>1.035549124174405</v>
+        <v>1.056175440290798</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9958231489789401</v>
+        <v>1.035323618236243</v>
       </c>
       <c r="D14">
-        <v>1.019540856282093</v>
+        <v>1.044747194064455</v>
       </c>
       <c r="E14">
-        <v>1.004188009720907</v>
+        <v>1.034476106966637</v>
       </c>
       <c r="F14">
-        <v>1.0215403999697</v>
+        <v>1.052775086775541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04409154579193</v>
+        <v>1.041133282855881</v>
       </c>
       <c r="J14">
-        <v>1.025406632165333</v>
+        <v>1.041896682157937</v>
       </c>
       <c r="K14">
-        <v>1.034119933946938</v>
+        <v>1.04828585549698</v>
       </c>
       <c r="L14">
-        <v>1.019048241943237</v>
+        <v>1.038052596162509</v>
       </c>
       <c r="M14">
-        <v>1.036083667914531</v>
+        <v>1.056284749357026</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.996302771975715</v>
+        <v>1.035415390344962</v>
       </c>
       <c r="D15">
-        <v>1.019904826051358</v>
+        <v>1.044820237740815</v>
       </c>
       <c r="E15">
-        <v>1.004562623096115</v>
+        <v>1.03455359818483</v>
       </c>
       <c r="F15">
-        <v>1.021962402083201</v>
+        <v>1.05286189697259</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044241220466528</v>
+        <v>1.041156822038105</v>
       </c>
       <c r="J15">
-        <v>1.025678147655029</v>
+        <v>1.041950947074821</v>
       </c>
       <c r="K15">
-        <v>1.034390983023375</v>
+        <v>1.048339322509792</v>
       </c>
       <c r="L15">
-        <v>1.019327552704602</v>
+        <v>1.03811026851013</v>
       </c>
       <c r="M15">
-        <v>1.036411998037267</v>
+        <v>1.056352106640029</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9990714477192171</v>
+        <v>1.035949815582413</v>
       </c>
       <c r="D16">
-        <v>1.022007653928269</v>
+        <v>1.045245627633101</v>
       </c>
       <c r="E16">
-        <v>1.006727824129625</v>
+        <v>1.035005006722287</v>
       </c>
       <c r="F16">
-        <v>1.024400882549029</v>
+        <v>1.053367542893764</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045102711018757</v>
+        <v>1.04129353762407</v>
       </c>
       <c r="J16">
-        <v>1.02724505153556</v>
+        <v>1.04226681555844</v>
       </c>
       <c r="K16">
-        <v>1.035955060643591</v>
+        <v>1.048650510268661</v>
       </c>
       <c r="L16">
-        <v>1.020940334902156</v>
+        <v>1.03844606918025</v>
       </c>
       <c r="M16">
-        <v>1.038307691273435</v>
+        <v>1.056744281567744</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000788406180025</v>
+        <v>1.036285284588226</v>
       </c>
       <c r="D17">
-        <v>1.023313203294249</v>
+        <v>1.045512677012953</v>
       </c>
       <c r="E17">
-        <v>1.008072876661154</v>
+        <v>1.03528849317637</v>
       </c>
       <c r="F17">
-        <v>1.02591516145715</v>
+        <v>1.053685048195893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045634704932442</v>
+        <v>1.041379037371463</v>
       </c>
       <c r="J17">
-        <v>1.028216320779214</v>
+        <v>1.042464970909185</v>
       </c>
       <c r="K17">
-        <v>1.036924452857806</v>
+        <v>1.048845697258794</v>
       </c>
       <c r="L17">
-        <v>1.021940824365945</v>
+        <v>1.038656814985568</v>
       </c>
       <c r="M17">
-        <v>1.039483565507217</v>
+        <v>1.056990392581254</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001782929380307</v>
+        <v>1.036481043303234</v>
       </c>
       <c r="D18">
-        <v>1.024069947720225</v>
+        <v>1.045668518771379</v>
       </c>
       <c r="E18">
-        <v>1.008852801123654</v>
+        <v>1.03545396429457</v>
       </c>
       <c r="F18">
-        <v>1.026793019520977</v>
+        <v>1.053870360873913</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045942032251268</v>
+        <v>1.041428814595642</v>
       </c>
       <c r="J18">
-        <v>1.028778748594973</v>
+        <v>1.042580558148325</v>
       </c>
       <c r="K18">
-        <v>1.037485746002717</v>
+        <v>1.0489595414559</v>
       </c>
       <c r="L18">
-        <v>1.02252045355438</v>
+        <v>1.038779777531209</v>
       </c>
       <c r="M18">
-        <v>1.040164759704539</v>
+        <v>1.05713398411189</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002120873111618</v>
+        <v>1.036547806389197</v>
       </c>
       <c r="D19">
-        <v>1.024327180212873</v>
+        <v>1.045721669682723</v>
       </c>
       <c r="E19">
-        <v>1.0091179611102</v>
+        <v>1.035510405673685</v>
       </c>
       <c r="F19">
-        <v>1.027091442800953</v>
+        <v>1.053933567528937</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046046322825156</v>
+        <v>1.041445771489859</v>
       </c>
       <c r="J19">
-        <v>1.028969834978892</v>
+        <v>1.042619971485941</v>
       </c>
       <c r="K19">
-        <v>1.037676438527756</v>
+        <v>1.048998358483767</v>
       </c>
       <c r="L19">
-        <v>1.022717431770057</v>
+        <v>1.038821710998734</v>
       </c>
       <c r="M19">
-        <v>1.040396245846255</v>
+        <v>1.057182951703015</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000604915400608</v>
+        <v>1.036249283102182</v>
       </c>
       <c r="D20">
-        <v>1.023173624906977</v>
+        <v>1.045484017229096</v>
       </c>
       <c r="E20">
-        <v>1.007929045680981</v>
+        <v>1.035258065516693</v>
       </c>
       <c r="F20">
-        <v>1.025753254462121</v>
+        <v>1.053650970744405</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045577935924067</v>
+        <v>1.041369873706232</v>
       </c>
       <c r="J20">
-        <v>1.028112538472661</v>
+        <v>1.042443710025929</v>
       </c>
       <c r="K20">
-        <v>1.036820876008529</v>
+        <v>1.04882475605686</v>
       </c>
       <c r="L20">
-        <v>1.021833890659104</v>
+        <v>1.038634200005979</v>
       </c>
       <c r="M20">
-        <v>1.039357890920451</v>
+        <v>1.056963983138598</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9955935062016071</v>
+        <v>1.035279761424626</v>
       </c>
       <c r="D21">
-        <v>1.019366620361802</v>
+        <v>1.044712287845965</v>
       </c>
       <c r="E21">
-        <v>1.004008694169897</v>
+        <v>1.034439077418267</v>
       </c>
       <c r="F21">
-        <v>1.021338389841496</v>
+        <v>1.052733603253996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044019837356274</v>
+        <v>1.041122027362495</v>
       </c>
       <c r="J21">
-        <v>1.025276623426945</v>
+        <v>1.041870747167146</v>
       </c>
       <c r="K21">
-        <v>1.033990146243165</v>
+        <v>1.048260301211868</v>
       </c>
       <c r="L21">
-        <v>1.018914516529608</v>
+        <v>1.038025034379259</v>
       </c>
       <c r="M21">
-        <v>1.035926471169753</v>
+        <v>1.056252558817069</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9923762825039746</v>
+        <v>1.034670964343533</v>
       </c>
       <c r="D22">
-        <v>1.016927838102202</v>
+        <v>1.044227771484142</v>
       </c>
       <c r="E22">
-        <v>1.001499845238443</v>
+        <v>1.033925225204375</v>
       </c>
       <c r="F22">
-        <v>1.018511269484123</v>
+        <v>1.052157887309715</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043012293529921</v>
+        <v>1.040965360728593</v>
       </c>
       <c r="J22">
-        <v>1.023454773792225</v>
+        <v>1.041510570795771</v>
       </c>
       <c r="K22">
-        <v>1.032171248223828</v>
+        <v>1.047905369650113</v>
       </c>
       <c r="L22">
-        <v>1.01704164834143</v>
+        <v>1.037642380461291</v>
       </c>
       <c r="M22">
-        <v>1.03372472281731</v>
+        <v>1.055805621806513</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9940882712052131</v>
+        <v>1.034993624754437</v>
       </c>
       <c r="D23">
-        <v>1.018225078475272</v>
+        <v>1.044484555767249</v>
       </c>
       <c r="E23">
-        <v>1.002834118063215</v>
+        <v>1.034197525179495</v>
       </c>
       <c r="F23">
-        <v>1.020014980158895</v>
+        <v>1.052462983202846</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043549111781324</v>
+        <v>1.041048491655581</v>
       </c>
       <c r="J23">
-        <v>1.024424343024352</v>
+        <v>1.04170150021728</v>
       </c>
       <c r="K23">
-        <v>1.033139279442511</v>
+        <v>1.048093528585626</v>
       </c>
       <c r="L23">
-        <v>1.018038123732859</v>
+        <v>1.03784519864674</v>
       </c>
       <c r="M23">
-        <v>1.034896217591303</v>
+        <v>1.056042516560258</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000687848423196</v>
+        <v>1.036265550360625</v>
       </c>
       <c r="D24">
-        <v>1.023236709059967</v>
+        <v>1.045496967116028</v>
       </c>
       <c r="E24">
-        <v>1.007994050969144</v>
+        <v>1.035271814101175</v>
       </c>
       <c r="F24">
-        <v>1.02582642990899</v>
+        <v>1.053666368515986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045603596579904</v>
+        <v>1.041374014660574</v>
       </c>
       <c r="J24">
-        <v>1.028159445871589</v>
+        <v>1.04245331688375</v>
       </c>
       <c r="K24">
-        <v>1.036867690693793</v>
+        <v>1.04883421850045</v>
       </c>
       <c r="L24">
-        <v>1.021882221553215</v>
+        <v>1.03864441862431</v>
       </c>
       <c r="M24">
-        <v>1.039414692276331</v>
+        <v>1.056975916308218</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008075316902741</v>
+        <v>1.037744890366884</v>
       </c>
       <c r="D25">
-        <v>1.028866698348525</v>
+        <v>1.046674803537988</v>
       </c>
       <c r="E25">
-        <v>1.01380159228743</v>
+        <v>1.036523099271999</v>
       </c>
       <c r="F25">
-        <v>1.032359856667246</v>
+        <v>1.055067420901252</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047871464289025</v>
+        <v>1.041748102131622</v>
       </c>
       <c r="J25">
-        <v>1.0323339374503</v>
+        <v>1.043326011559769</v>
       </c>
       <c r="K25">
-        <v>1.041032833543962</v>
+        <v>1.049693544073043</v>
       </c>
       <c r="L25">
-        <v>1.026189368768803</v>
+        <v>1.039573357792826</v>
       </c>
       <c r="M25">
-        <v>1.044475769404061</v>
+        <v>1.058060604336421</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038927444142529</v>
+        <v>1.01376710590998</v>
       </c>
       <c r="D2">
-        <v>1.047616587205179</v>
+        <v>1.033218463394</v>
       </c>
       <c r="E2">
-        <v>1.037524789852911</v>
+        <v>1.018299611576478</v>
       </c>
       <c r="F2">
-        <v>1.056188527193665</v>
+        <v>1.037414383201525</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042043491777227</v>
+        <v>1.049591873518619</v>
       </c>
       <c r="J2">
-        <v>1.044022227579138</v>
+        <v>1.035543700218206</v>
       </c>
       <c r="K2">
-        <v>1.050378726037938</v>
+        <v>1.044233626113219</v>
       </c>
       <c r="L2">
-        <v>1.040315426889858</v>
+        <v>1.029509757336176</v>
       </c>
       <c r="M2">
-        <v>1.058926923289173</v>
+        <v>1.048375969123194</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039787584377955</v>
+        <v>1.017791847722957</v>
       </c>
       <c r="D3">
-        <v>1.048301733414593</v>
+        <v>1.036302865475728</v>
       </c>
       <c r="E3">
-        <v>1.03825420163419</v>
+        <v>1.021493009806245</v>
       </c>
       <c r="F3">
-        <v>1.057004621183756</v>
+        <v>1.040999685419146</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042256228456884</v>
+        <v>1.050792175109316</v>
       </c>
       <c r="J3">
-        <v>1.04452781047057</v>
+        <v>1.037808966203077</v>
       </c>
       <c r="K3">
-        <v>1.05087608095883</v>
+        <v>1.046491395710307</v>
       </c>
       <c r="L3">
-        <v>1.040854877054477</v>
+        <v>1.031858075522397</v>
       </c>
       <c r="M3">
-        <v>1.059556600591692</v>
+        <v>1.051133525732049</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040344838241483</v>
+        <v>1.020348679999199</v>
       </c>
       <c r="D4">
-        <v>1.048745672616951</v>
+        <v>1.03826537032175</v>
       </c>
       <c r="E4">
-        <v>1.038727138843579</v>
+        <v>1.023527374479642</v>
       </c>
       <c r="F4">
-        <v>1.057533635725298</v>
+        <v>1.043282270098423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042393072671594</v>
+        <v>1.051546981188843</v>
       </c>
       <c r="J4">
-        <v>1.044854980474361</v>
+        <v>1.039245808575786</v>
       </c>
       <c r="K4">
-        <v>1.051197826453084</v>
+        <v>1.047922900709649</v>
       </c>
       <c r="L4">
-        <v>1.041204226393943</v>
+        <v>1.033349901104243</v>
       </c>
       <c r="M4">
-        <v>1.059964336641698</v>
+        <v>1.052884940217977</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040579270305735</v>
+        <v>1.021412569553922</v>
       </c>
       <c r="D5">
-        <v>1.048932447431525</v>
+        <v>1.039082653101138</v>
       </c>
       <c r="E5">
-        <v>1.03892618944282</v>
+        <v>1.024375191080573</v>
       </c>
       <c r="F5">
-        <v>1.057756258273463</v>
+        <v>1.044233190314519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042450407178453</v>
+        <v>1.051859170368451</v>
       </c>
       <c r="J5">
-        <v>1.044992527229103</v>
+        <v>1.039843110001359</v>
       </c>
       <c r="K5">
-        <v>1.05133306863562</v>
+        <v>1.048517837342538</v>
       </c>
       <c r="L5">
-        <v>1.041351160674433</v>
+        <v>1.033970612388136</v>
       </c>
       <c r="M5">
-        <v>1.06013581737374</v>
+        <v>1.053613565595754</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040618641965935</v>
+        <v>1.021590566142806</v>
       </c>
       <c r="D6">
-        <v>1.048963816065455</v>
+        <v>1.039219429996216</v>
       </c>
       <c r="E6">
-        <v>1.038959624220237</v>
+        <v>1.024517113879961</v>
       </c>
       <c r="F6">
-        <v>1.057793650707586</v>
+        <v>1.04439235252581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042460022449987</v>
+        <v>1.051911290350887</v>
       </c>
       <c r="J6">
-        <v>1.045015622160384</v>
+        <v>1.039943008985149</v>
       </c>
       <c r="K6">
-        <v>1.051355775203685</v>
+        <v>1.04861733204927</v>
       </c>
       <c r="L6">
-        <v>1.041375835523683</v>
+        <v>1.034074459211943</v>
       </c>
       <c r="M6">
-        <v>1.060164613713851</v>
+        <v>1.053735461195291</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040347970097522</v>
+        <v>1.020362938516114</v>
       </c>
       <c r="D7">
-        <v>1.048748167752391</v>
+        <v>1.038276321077317</v>
       </c>
       <c r="E7">
-        <v>1.038729797674598</v>
+        <v>1.023538731950182</v>
       </c>
       <c r="F7">
-        <v>1.057536609537641</v>
+        <v>1.043295010100556</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042393839544426</v>
+        <v>1.05155117270305</v>
       </c>
       <c r="J7">
-        <v>1.044856818364805</v>
+        <v>1.039253816024305</v>
       </c>
       <c r="K7">
-        <v>1.051199633644524</v>
+        <v>1.047930877040638</v>
       </c>
       <c r="L7">
-        <v>1.041206189472233</v>
+        <v>1.033358220200935</v>
       </c>
       <c r="M7">
-        <v>1.059966627708473</v>
+        <v>1.052894706009336</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039217989639332</v>
+        <v>1.015137329091235</v>
       </c>
       <c r="D8">
-        <v>1.047848009488851</v>
+        <v>1.034267883916666</v>
       </c>
       <c r="E8">
-        <v>1.037771098331759</v>
+        <v>1.019385595140204</v>
       </c>
       <c r="F8">
-        <v>1.056464132710306</v>
+        <v>1.038633946853999</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042115554542539</v>
+        <v>1.050002113491453</v>
       </c>
       <c r="J8">
-        <v>1.044193085933899</v>
+        <v>1.036315359909931</v>
       </c>
       <c r="K8">
-        <v>1.050546824478413</v>
+        <v>1.045002850391363</v>
       </c>
       <c r="L8">
-        <v>1.040497675932355</v>
+        <v>1.030309225904819</v>
       </c>
       <c r="M8">
-        <v>1.059139664117747</v>
+        <v>1.049314841097401</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037232141463659</v>
+        <v>1.005548993698885</v>
       </c>
       <c r="D9">
-        <v>1.046266518410763</v>
+        <v>1.026939042894</v>
       </c>
       <c r="E9">
-        <v>1.036089171781897</v>
+        <v>1.011811743046678</v>
       </c>
       <c r="F9">
-        <v>1.054581630431147</v>
+        <v>1.030122206837324</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041619004688499</v>
+        <v>1.047100060291608</v>
       </c>
       <c r="J9">
-        <v>1.043023745370419</v>
+        <v>1.030907312975696</v>
       </c>
       <c r="K9">
-        <v>1.049395965223945</v>
+        <v>1.039609666178587</v>
       </c>
       <c r="L9">
-        <v>1.039251458697217</v>
+        <v>1.024716046287973</v>
       </c>
       <c r="M9">
-        <v>1.057684760637539</v>
+        <v>1.042744770827984</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035911915938127</v>
+        <v>0.9988764623307987</v>
       </c>
       <c r="D10">
-        <v>1.045215458859367</v>
+        <v>1.021859462701963</v>
       </c>
       <c r="E10">
-        <v>1.034972986069888</v>
+        <v>1.006575187246578</v>
       </c>
       <c r="F10">
-        <v>1.053331677643743</v>
+        <v>1.024229015567169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041283862718402</v>
+        <v>1.045042184363103</v>
       </c>
       <c r="J10">
-        <v>1.042244423016686</v>
+        <v>1.027134728229087</v>
       </c>
       <c r="K10">
-        <v>1.048628451605641</v>
+        <v>1.035844944232732</v>
       </c>
       <c r="L10">
-        <v>1.038422258061563</v>
+        <v>1.020826730880368</v>
       </c>
       <c r="M10">
-        <v>1.056716473988286</v>
+        <v>1.038174166711788</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035341134963285</v>
+        <v>0.9959147909801765</v>
       </c>
       <c r="D11">
-        <v>1.044761135949633</v>
+        <v>1.019610393276343</v>
       </c>
       <c r="E11">
-        <v>1.034490897304001</v>
+        <v>1.004259576786942</v>
       </c>
       <c r="F11">
-        <v>1.052791655963897</v>
+        <v>1.021621022720924</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041137777226266</v>
+        <v>1.04412015399042</v>
       </c>
       <c r="J11">
-        <v>1.041907040342505</v>
+        <v>1.02545851253112</v>
       </c>
       <c r="K11">
-        <v>1.048296061516011</v>
+        <v>1.034171725695956</v>
       </c>
       <c r="L11">
-        <v>1.038063604384843</v>
+        <v>1.019101608329143</v>
       </c>
       <c r="M11">
-        <v>1.056297606258741</v>
+        <v>1.036146400680669</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035129256117221</v>
+        <v>0.9948032763041879</v>
       </c>
       <c r="D12">
-        <v>1.044592501117122</v>
+        <v>1.018767212457468</v>
       </c>
       <c r="E12">
-        <v>1.034312014254794</v>
+        <v>1.003391887560019</v>
       </c>
       <c r="F12">
-        <v>1.052591252536391</v>
+        <v>1.020643464181958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04108337004742</v>
+        <v>1.043772862359626</v>
       </c>
       <c r="J12">
-        <v>1.041781733058563</v>
+        <v>1.024829210898754</v>
       </c>
       <c r="K12">
-        <v>1.048172590630501</v>
+        <v>1.033543483318337</v>
       </c>
       <c r="L12">
-        <v>1.037930445279823</v>
+        <v>1.018454391595733</v>
       </c>
       <c r="M12">
-        <v>1.056142082857525</v>
+        <v>1.03538557405509</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035174698731243</v>
+        <v>0.9950422256593053</v>
       </c>
       <c r="D13">
-        <v>1.044628668359924</v>
+        <v>1.018948434969366</v>
       </c>
       <c r="E13">
-        <v>1.034350376821383</v>
+        <v>1.00357835791767</v>
       </c>
       <c r="F13">
-        <v>1.052634231363757</v>
+        <v>1.020853560068957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041095047100193</v>
+        <v>1.043847577821769</v>
       </c>
       <c r="J13">
-        <v>1.041808611347836</v>
+        <v>1.024964505070024</v>
       </c>
       <c r="K13">
-        <v>1.048199075822803</v>
+        <v>1.033678552598762</v>
       </c>
       <c r="L13">
-        <v>1.037959005584361</v>
+        <v>1.01859351717039</v>
       </c>
       <c r="M13">
-        <v>1.056175440290798</v>
+        <v>1.035549124174405</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035323618236243</v>
+        <v>0.9958231489789401</v>
       </c>
       <c r="D14">
-        <v>1.044747194064455</v>
+        <v>1.019540856282094</v>
       </c>
       <c r="E14">
-        <v>1.034476106966637</v>
+        <v>1.004188009720907</v>
       </c>
       <c r="F14">
-        <v>1.052775086775541</v>
+        <v>1.021540399969701</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041133282855881</v>
+        <v>1.044091545791931</v>
       </c>
       <c r="J14">
-        <v>1.041896682157937</v>
+        <v>1.025406632165333</v>
       </c>
       <c r="K14">
-        <v>1.04828585549698</v>
+        <v>1.034119933946938</v>
       </c>
       <c r="L14">
-        <v>1.038052596162509</v>
+        <v>1.019048241943236</v>
       </c>
       <c r="M14">
-        <v>1.056284749357026</v>
+        <v>1.036083667914532</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035415390344962</v>
+        <v>0.996302771975714</v>
       </c>
       <c r="D15">
-        <v>1.044820237740815</v>
+        <v>1.019904826051357</v>
       </c>
       <c r="E15">
-        <v>1.03455359818483</v>
+        <v>1.004562623096114</v>
       </c>
       <c r="F15">
-        <v>1.05286189697259</v>
+        <v>1.021962402083201</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041156822038105</v>
+        <v>1.044241220466527</v>
       </c>
       <c r="J15">
-        <v>1.041950947074821</v>
+        <v>1.025678147655028</v>
       </c>
       <c r="K15">
-        <v>1.048339322509792</v>
+        <v>1.034390983023374</v>
       </c>
       <c r="L15">
-        <v>1.03811026851013</v>
+        <v>1.019327552704601</v>
       </c>
       <c r="M15">
-        <v>1.056352106640029</v>
+        <v>1.036411998037267</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035949815582413</v>
+        <v>0.9990714477192171</v>
       </c>
       <c r="D16">
-        <v>1.045245627633101</v>
+        <v>1.022007653928268</v>
       </c>
       <c r="E16">
-        <v>1.035005006722287</v>
+        <v>1.006727824129625</v>
       </c>
       <c r="F16">
-        <v>1.053367542893764</v>
+        <v>1.024400882549029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04129353762407</v>
+        <v>1.045102711018757</v>
       </c>
       <c r="J16">
-        <v>1.04226681555844</v>
+        <v>1.02724505153556</v>
       </c>
       <c r="K16">
-        <v>1.048650510268661</v>
+        <v>1.035955060643591</v>
       </c>
       <c r="L16">
-        <v>1.03844606918025</v>
+        <v>1.020940334902156</v>
       </c>
       <c r="M16">
-        <v>1.056744281567744</v>
+        <v>1.038307691273435</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036285284588226</v>
+        <v>1.000788406180026</v>
       </c>
       <c r="D17">
-        <v>1.045512677012953</v>
+        <v>1.02331320329425</v>
       </c>
       <c r="E17">
-        <v>1.03528849317637</v>
+        <v>1.008072876661154</v>
       </c>
       <c r="F17">
-        <v>1.053685048195893</v>
+        <v>1.025915161457151</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041379037371463</v>
+        <v>1.045634704932442</v>
       </c>
       <c r="J17">
-        <v>1.042464970909185</v>
+        <v>1.028216320779214</v>
       </c>
       <c r="K17">
-        <v>1.048845697258794</v>
+        <v>1.036924452857807</v>
       </c>
       <c r="L17">
-        <v>1.038656814985568</v>
+        <v>1.021940824365946</v>
       </c>
       <c r="M17">
-        <v>1.056990392581254</v>
+        <v>1.039483565507217</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036481043303234</v>
+        <v>1.001782929380306</v>
       </c>
       <c r="D18">
-        <v>1.045668518771379</v>
+        <v>1.024069947720224</v>
       </c>
       <c r="E18">
-        <v>1.03545396429457</v>
+        <v>1.008852801123653</v>
       </c>
       <c r="F18">
-        <v>1.053870360873913</v>
+        <v>1.026793019520977</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041428814595642</v>
+        <v>1.045942032251268</v>
       </c>
       <c r="J18">
-        <v>1.042580558148325</v>
+        <v>1.028778748594972</v>
       </c>
       <c r="K18">
-        <v>1.0489595414559</v>
+        <v>1.037485746002716</v>
       </c>
       <c r="L18">
-        <v>1.038779777531209</v>
+        <v>1.022520453554379</v>
       </c>
       <c r="M18">
-        <v>1.05713398411189</v>
+        <v>1.040164759704539</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036547806389197</v>
+        <v>1.002120873111617</v>
       </c>
       <c r="D19">
-        <v>1.045721669682723</v>
+        <v>1.024327180212872</v>
       </c>
       <c r="E19">
-        <v>1.035510405673685</v>
+        <v>1.009117961110199</v>
       </c>
       <c r="F19">
-        <v>1.053933567528937</v>
+        <v>1.027091442800952</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041445771489859</v>
+        <v>1.046046322825155</v>
       </c>
       <c r="J19">
-        <v>1.042619971485941</v>
+        <v>1.028969834978891</v>
       </c>
       <c r="K19">
-        <v>1.048998358483767</v>
+        <v>1.037676438527756</v>
       </c>
       <c r="L19">
-        <v>1.038821710998734</v>
+        <v>1.022717431770057</v>
       </c>
       <c r="M19">
-        <v>1.057182951703015</v>
+        <v>1.040396245846255</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036249283102182</v>
+        <v>1.000604915400608</v>
       </c>
       <c r="D20">
-        <v>1.045484017229096</v>
+        <v>1.023173624906976</v>
       </c>
       <c r="E20">
-        <v>1.035258065516693</v>
+        <v>1.007929045680981</v>
       </c>
       <c r="F20">
-        <v>1.053650970744405</v>
+        <v>1.025753254462121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041369873706232</v>
+        <v>1.045577935924067</v>
       </c>
       <c r="J20">
-        <v>1.042443710025929</v>
+        <v>1.028112538472661</v>
       </c>
       <c r="K20">
-        <v>1.04882475605686</v>
+        <v>1.036820876008529</v>
       </c>
       <c r="L20">
-        <v>1.038634200005979</v>
+        <v>1.021833890659104</v>
       </c>
       <c r="M20">
-        <v>1.056963983138598</v>
+        <v>1.039357890920451</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035279761424626</v>
+        <v>0.9955935062016078</v>
       </c>
       <c r="D21">
-        <v>1.044712287845965</v>
+        <v>1.019366620361803</v>
       </c>
       <c r="E21">
-        <v>1.034439077418267</v>
+        <v>1.004008694169898</v>
       </c>
       <c r="F21">
-        <v>1.052733603253996</v>
+        <v>1.021338389841498</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041122027362495</v>
+        <v>1.044019837356274</v>
       </c>
       <c r="J21">
-        <v>1.041870747167146</v>
+        <v>1.025276623426946</v>
       </c>
       <c r="K21">
-        <v>1.048260301211868</v>
+        <v>1.033990146243166</v>
       </c>
       <c r="L21">
-        <v>1.038025034379259</v>
+        <v>1.018914516529609</v>
       </c>
       <c r="M21">
-        <v>1.056252558817069</v>
+        <v>1.035926471169755</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034670964343533</v>
+        <v>0.992376282503974</v>
       </c>
       <c r="D22">
-        <v>1.044227771484142</v>
+        <v>1.016927838102202</v>
       </c>
       <c r="E22">
-        <v>1.033925225204375</v>
+        <v>1.001499845238442</v>
       </c>
       <c r="F22">
-        <v>1.052157887309715</v>
+        <v>1.018511269484123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040965360728593</v>
+        <v>1.043012293529921</v>
       </c>
       <c r="J22">
-        <v>1.041510570795771</v>
+        <v>1.023454773792225</v>
       </c>
       <c r="K22">
-        <v>1.047905369650113</v>
+        <v>1.032171248223827</v>
       </c>
       <c r="L22">
-        <v>1.037642380461291</v>
+        <v>1.017041648341429</v>
       </c>
       <c r="M22">
-        <v>1.055805621806513</v>
+        <v>1.033724722817309</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034993624754437</v>
+        <v>0.9940882712052121</v>
       </c>
       <c r="D23">
-        <v>1.044484555767249</v>
+        <v>1.018225078475271</v>
       </c>
       <c r="E23">
-        <v>1.034197525179495</v>
+        <v>1.002834118063214</v>
       </c>
       <c r="F23">
-        <v>1.052462983202846</v>
+        <v>1.020014980158894</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041048491655581</v>
+        <v>1.043549111781324</v>
       </c>
       <c r="J23">
-        <v>1.04170150021728</v>
+        <v>1.024424343024352</v>
       </c>
       <c r="K23">
-        <v>1.048093528585626</v>
+        <v>1.03313927944251</v>
       </c>
       <c r="L23">
-        <v>1.03784519864674</v>
+        <v>1.018038123732858</v>
       </c>
       <c r="M23">
-        <v>1.056042516560258</v>
+        <v>1.034896217591301</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036265550360625</v>
+        <v>1.000687848423196</v>
       </c>
       <c r="D24">
-        <v>1.045496967116028</v>
+        <v>1.023236709059967</v>
       </c>
       <c r="E24">
-        <v>1.035271814101175</v>
+        <v>1.007994050969144</v>
       </c>
       <c r="F24">
-        <v>1.053666368515986</v>
+        <v>1.02582642990899</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041374014660574</v>
+        <v>1.045603596579904</v>
       </c>
       <c r="J24">
-        <v>1.04245331688375</v>
+        <v>1.028159445871589</v>
       </c>
       <c r="K24">
-        <v>1.04883421850045</v>
+        <v>1.036867690693794</v>
       </c>
       <c r="L24">
-        <v>1.03864441862431</v>
+        <v>1.021882221553215</v>
       </c>
       <c r="M24">
-        <v>1.056975916308218</v>
+        <v>1.039414692276332</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037744890366884</v>
+        <v>1.008075316902741</v>
       </c>
       <c r="D25">
-        <v>1.046674803537988</v>
+        <v>1.028866698348525</v>
       </c>
       <c r="E25">
-        <v>1.036523099271999</v>
+        <v>1.01380159228743</v>
       </c>
       <c r="F25">
-        <v>1.055067420901252</v>
+        <v>1.032359856667247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041748102131622</v>
+        <v>1.047871464289025</v>
       </c>
       <c r="J25">
-        <v>1.043326011559769</v>
+        <v>1.0323339374503</v>
       </c>
       <c r="K25">
-        <v>1.049693544073043</v>
+        <v>1.041032833543963</v>
       </c>
       <c r="L25">
-        <v>1.039573357792826</v>
+        <v>1.026189368768803</v>
       </c>
       <c r="M25">
-        <v>1.058060604336421</v>
+        <v>1.044475769404062</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
